--- a/data/050717.xlsx
+++ b/data/050717.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>ID</t>
   </si>
@@ -39,52 +39,76 @@
   <si>
     <t>DJSJ</t>
   </si>
+  <si>
+    <t>D7e45c71ca80e48e5a10d5147b038d0a30904</t>
+  </si>
+  <si>
+    <t>De86ddd0ff92346c69f533eb253e09042</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <r>
+      <t>硝化纤维素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≥25%]</t>
+    </r>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ dddd\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,10 +119,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,15 +164,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,14 +183,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,17 +205,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,9 +219,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,11 +242,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -218,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,35 +459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,6 +483,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -471,6 +509,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,176 +556,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -982,19 +1032,19 @@
   <dimension ref="A1:H465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.44444444444444" customWidth="1"/>
-    <col min="2" max="2" width="7.44444444444444" customWidth="1"/>
+    <col min="1" max="1" width="41.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="36.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="7.66666666666667" customWidth="1"/>
     <col min="6" max="6" width="24.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="9.22222222222222" customWidth="1"/>
-    <col min="8" max="8" width="5.11111111111111" customWidth="1"/>
+    <col min="8" max="8" width="16.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1023,1397 +1073,1417 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="8:8">
-      <c r="H2" s="1"/>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43163.3875</v>
+      </c>
     </row>
     <row r="3" spans="8:8">
-      <c r="H3" s="1"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="8:8">
-      <c r="H4" s="1"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="8:8">
-      <c r="H5" s="1"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="8:8">
-      <c r="H6" s="1"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="8:8">
-      <c r="H7" s="1"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="8:8">
-      <c r="H8" s="1"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="8:8">
-      <c r="H9" s="1"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="8:8">
-      <c r="H10" s="1"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="8:8">
-      <c r="H11" s="1"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="8:8">
-      <c r="H12" s="1"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="8:8">
-      <c r="H13" s="1"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="8:8">
-      <c r="H14" s="1"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="8:8">
-      <c r="H15" s="1"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="8:8">
-      <c r="H16" s="1"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="8:8">
-      <c r="H17" s="1"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="8:8">
-      <c r="H18" s="1"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="8:8">
-      <c r="H19" s="1"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="8:8">
-      <c r="H20" s="1"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="8:8">
-      <c r="H21" s="1"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="8:8">
-      <c r="H22" s="1"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="8:8">
-      <c r="H23" s="1"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="8:8">
-      <c r="H24" s="1"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="8:8">
-      <c r="H25" s="1"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="8:8">
-      <c r="H26" s="1"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="8:8">
-      <c r="H27" s="1"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="8:8">
-      <c r="H28" s="1"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="8:8">
-      <c r="H29" s="1"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="8:8">
-      <c r="H30" s="1"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="8:8">
-      <c r="H31" s="1"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="8:8">
-      <c r="H32" s="1"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="8:8">
-      <c r="H33" s="1"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="8:8">
-      <c r="H34" s="1"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="8:8">
-      <c r="H35" s="1"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="1"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="1"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="1"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="1"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="1"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="1"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="1"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="1"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="1"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="1"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="1"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="1"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="1"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="1"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="1"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="1"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52" spans="8:8">
-      <c r="H52" s="1"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53" spans="8:8">
-      <c r="H53" s="1"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="8:8">
-      <c r="H54" s="1"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55" spans="8:8">
-      <c r="H55" s="1"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56" spans="8:8">
-      <c r="H56" s="1"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57" spans="8:8">
-      <c r="H57" s="1"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58" spans="8:8">
-      <c r="H58" s="1"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59" spans="8:8">
-      <c r="H59" s="1"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60" spans="8:8">
-      <c r="H60" s="1"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61" spans="8:8">
-      <c r="H61" s="1"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62" spans="8:8">
-      <c r="H62" s="1"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="8:8">
-      <c r="H63" s="1"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64" spans="8:8">
-      <c r="H64" s="1"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65" spans="8:8">
-      <c r="H65" s="1"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66" spans="8:8">
-      <c r="H66" s="1"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67" spans="8:8">
-      <c r="H67" s="1"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68" spans="8:8">
-      <c r="H68" s="1"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69" spans="8:8">
-      <c r="H69" s="1"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70" spans="8:8">
-      <c r="H70" s="1"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71" spans="8:8">
-      <c r="H71" s="1"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72" spans="8:8">
-      <c r="H72" s="1"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73" spans="8:8">
-      <c r="H73" s="1"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74" spans="8:8">
-      <c r="H74" s="1"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75" spans="8:8">
-      <c r="H75" s="1"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76" spans="8:8">
-      <c r="H76" s="1"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77" spans="8:8">
-      <c r="H77" s="1"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78" spans="8:8">
-      <c r="H78" s="1"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79" spans="8:8">
-      <c r="H79" s="1"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="8:8">
-      <c r="H80" s="1"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="8:8">
-      <c r="H81" s="1"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="8:8">
-      <c r="H82" s="1"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83" spans="8:8">
-      <c r="H83" s="1"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="8:8">
-      <c r="H84" s="1"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="8:8">
-      <c r="H85" s="1"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="8:8">
-      <c r="H86" s="1"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="8:8">
-      <c r="H87" s="1"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" spans="8:8">
-      <c r="H88" s="1"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" spans="8:8">
-      <c r="H89" s="1"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90" spans="8:8">
-      <c r="H90" s="1"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91" spans="8:8">
-      <c r="H91" s="1"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92" spans="8:8">
-      <c r="H92" s="1"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" spans="8:8">
-      <c r="H93" s="1"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" spans="8:8">
-      <c r="H94" s="1"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" spans="8:8">
-      <c r="H95" s="1"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96" spans="8:8">
-      <c r="H96" s="1"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97" spans="8:8">
-      <c r="H97" s="1"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98" spans="8:8">
-      <c r="H98" s="1"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99" spans="8:8">
-      <c r="H99" s="1"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100" spans="8:8">
-      <c r="H100" s="1"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101" spans="8:8">
-      <c r="H101" s="1"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102" spans="8:8">
-      <c r="H102" s="1"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103" spans="8:8">
-      <c r="H103" s="1"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104" spans="8:8">
-      <c r="H104" s="1"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105" spans="8:8">
-      <c r="H105" s="1"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106" spans="8:8">
-      <c r="H106" s="1"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107" spans="8:8">
-      <c r="H107" s="1"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108" spans="8:8">
-      <c r="H108" s="1"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" spans="8:8">
-      <c r="H109" s="1"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110" spans="8:8">
-      <c r="H110" s="1"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111" spans="8:8">
-      <c r="H111" s="1"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112" spans="8:8">
-      <c r="H112" s="1"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113" spans="8:8">
-      <c r="H113" s="1"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114" spans="8:8">
-      <c r="H114" s="1"/>
+      <c r="H114" s="4"/>
     </row>
     <row r="115" spans="8:8">
-      <c r="H115" s="1"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116" spans="8:8">
-      <c r="H116" s="1"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117" spans="8:8">
-      <c r="H117" s="1"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118" spans="8:8">
-      <c r="H118" s="1"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119" spans="8:8">
-      <c r="H119" s="1"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120" spans="8:8">
-      <c r="H120" s="1"/>
+      <c r="H120" s="4"/>
     </row>
     <row r="121" spans="8:8">
-      <c r="H121" s="1"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122" spans="8:8">
-      <c r="H122" s="1"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123" spans="8:8">
-      <c r="H123" s="1"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124" spans="8:8">
-      <c r="H124" s="1"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125" spans="8:8">
-      <c r="H125" s="1"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126" spans="8:8">
-      <c r="H126" s="1"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127" spans="8:8">
-      <c r="H127" s="1"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128" spans="8:8">
-      <c r="H128" s="1"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129" spans="8:8">
-      <c r="H129" s="1"/>
+      <c r="H129" s="4"/>
     </row>
     <row r="130" spans="8:8">
-      <c r="H130" s="1"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131" spans="8:8">
-      <c r="H131" s="1"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132" spans="8:8">
-      <c r="H132" s="1"/>
+      <c r="H132" s="4"/>
     </row>
     <row r="133" spans="8:8">
-      <c r="H133" s="1"/>
+      <c r="H133" s="4"/>
     </row>
     <row r="134" spans="8:8">
-      <c r="H134" s="1"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135" spans="8:8">
-      <c r="H135" s="1"/>
+      <c r="H135" s="4"/>
     </row>
     <row r="136" spans="8:8">
-      <c r="H136" s="1"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137" spans="8:8">
-      <c r="H137" s="1"/>
+      <c r="H137" s="4"/>
     </row>
     <row r="138" spans="8:8">
-      <c r="H138" s="1"/>
+      <c r="H138" s="4"/>
     </row>
     <row r="139" spans="8:8">
-      <c r="H139" s="1"/>
+      <c r="H139" s="4"/>
     </row>
     <row r="140" spans="8:8">
-      <c r="H140" s="1"/>
+      <c r="H140" s="4"/>
     </row>
     <row r="141" spans="8:8">
-      <c r="H141" s="1"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142" spans="8:8">
-      <c r="H142" s="1"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143" spans="8:8">
-      <c r="H143" s="1"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144" spans="8:8">
-      <c r="H144" s="1"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145" spans="8:8">
-      <c r="H145" s="1"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146" spans="8:8">
-      <c r="H146" s="1"/>
+      <c r="H146" s="4"/>
     </row>
     <row r="147" spans="8:8">
-      <c r="H147" s="1"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148" spans="8:8">
-      <c r="H148" s="1"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149" spans="8:8">
-      <c r="H149" s="1"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150" spans="8:8">
-      <c r="H150" s="1"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151" spans="8:8">
-      <c r="H151" s="1"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152" spans="8:8">
-      <c r="H152" s="1"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153" spans="8:8">
-      <c r="H153" s="1"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154" spans="8:8">
-      <c r="H154" s="1"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155" spans="8:8">
-      <c r="H155" s="1"/>
+      <c r="H155" s="4"/>
     </row>
     <row r="156" spans="8:8">
-      <c r="H156" s="1"/>
+      <c r="H156" s="4"/>
     </row>
     <row r="157" spans="8:8">
-      <c r="H157" s="1"/>
+      <c r="H157" s="4"/>
     </row>
     <row r="158" spans="8:8">
-      <c r="H158" s="1"/>
+      <c r="H158" s="4"/>
     </row>
     <row r="159" spans="8:8">
-      <c r="H159" s="1"/>
+      <c r="H159" s="4"/>
     </row>
     <row r="160" spans="8:8">
-      <c r="H160" s="1"/>
+      <c r="H160" s="4"/>
     </row>
     <row r="161" spans="8:8">
-      <c r="H161" s="1"/>
+      <c r="H161" s="4"/>
     </row>
     <row r="162" spans="8:8">
-      <c r="H162" s="1"/>
+      <c r="H162" s="4"/>
     </row>
     <row r="163" spans="8:8">
-      <c r="H163" s="1"/>
+      <c r="H163" s="4"/>
     </row>
     <row r="164" spans="8:8">
-      <c r="H164" s="1"/>
+      <c r="H164" s="4"/>
     </row>
     <row r="165" spans="8:8">
-      <c r="H165" s="1"/>
+      <c r="H165" s="4"/>
     </row>
     <row r="166" spans="8:8">
-      <c r="H166" s="1"/>
+      <c r="H166" s="4"/>
     </row>
     <row r="167" spans="8:8">
-      <c r="H167" s="1"/>
+      <c r="H167" s="4"/>
     </row>
     <row r="168" spans="8:8">
-      <c r="H168" s="1"/>
+      <c r="H168" s="4"/>
     </row>
     <row r="169" spans="8:8">
-      <c r="H169" s="1"/>
+      <c r="H169" s="4"/>
     </row>
     <row r="170" spans="8:8">
-      <c r="H170" s="1"/>
+      <c r="H170" s="4"/>
     </row>
     <row r="171" spans="8:8">
-      <c r="H171" s="1"/>
+      <c r="H171" s="4"/>
     </row>
     <row r="172" spans="8:8">
-      <c r="H172" s="1"/>
+      <c r="H172" s="4"/>
     </row>
     <row r="173" spans="8:8">
-      <c r="H173" s="1"/>
+      <c r="H173" s="4"/>
     </row>
     <row r="174" spans="8:8">
-      <c r="H174" s="1"/>
+      <c r="H174" s="4"/>
     </row>
     <row r="175" spans="8:8">
-      <c r="H175" s="1"/>
+      <c r="H175" s="4"/>
     </row>
     <row r="176" spans="8:8">
-      <c r="H176" s="1"/>
+      <c r="H176" s="4"/>
     </row>
     <row r="177" spans="8:8">
-      <c r="H177" s="1"/>
+      <c r="H177" s="4"/>
     </row>
     <row r="178" spans="8:8">
-      <c r="H178" s="1"/>
+      <c r="H178" s="4"/>
     </row>
     <row r="179" spans="8:8">
-      <c r="H179" s="1"/>
+      <c r="H179" s="4"/>
     </row>
     <row r="180" spans="8:8">
-      <c r="H180" s="1"/>
+      <c r="H180" s="4"/>
     </row>
     <row r="181" spans="8:8">
-      <c r="H181" s="1"/>
+      <c r="H181" s="4"/>
     </row>
     <row r="182" spans="8:8">
-      <c r="H182" s="1"/>
+      <c r="H182" s="4"/>
     </row>
     <row r="183" spans="8:8">
-      <c r="H183" s="1"/>
+      <c r="H183" s="4"/>
     </row>
     <row r="184" spans="8:8">
-      <c r="H184" s="1"/>
+      <c r="H184" s="4"/>
     </row>
     <row r="185" spans="8:8">
-      <c r="H185" s="1"/>
+      <c r="H185" s="4"/>
     </row>
     <row r="186" spans="8:8">
-      <c r="H186" s="1"/>
+      <c r="H186" s="4"/>
     </row>
     <row r="187" spans="8:8">
-      <c r="H187" s="1"/>
+      <c r="H187" s="4"/>
     </row>
     <row r="188" spans="8:8">
-      <c r="H188" s="1"/>
+      <c r="H188" s="4"/>
     </row>
     <row r="189" spans="8:8">
-      <c r="H189" s="1"/>
+      <c r="H189" s="4"/>
     </row>
     <row r="190" spans="8:8">
-      <c r="H190" s="1"/>
+      <c r="H190" s="4"/>
     </row>
     <row r="191" spans="8:8">
-      <c r="H191" s="1"/>
+      <c r="H191" s="4"/>
     </row>
     <row r="192" spans="8:8">
-      <c r="H192" s="1"/>
+      <c r="H192" s="4"/>
     </row>
     <row r="193" spans="8:8">
-      <c r="H193" s="1"/>
+      <c r="H193" s="4"/>
     </row>
     <row r="194" spans="8:8">
-      <c r="H194" s="1"/>
+      <c r="H194" s="4"/>
     </row>
     <row r="195" spans="8:8">
-      <c r="H195" s="1"/>
+      <c r="H195" s="4"/>
     </row>
     <row r="196" spans="8:8">
-      <c r="H196" s="1"/>
+      <c r="H196" s="4"/>
     </row>
     <row r="197" spans="8:8">
-      <c r="H197" s="1"/>
+      <c r="H197" s="4"/>
     </row>
     <row r="198" spans="8:8">
-      <c r="H198" s="1"/>
+      <c r="H198" s="4"/>
     </row>
     <row r="199" spans="8:8">
-      <c r="H199" s="1"/>
+      <c r="H199" s="4"/>
     </row>
     <row r="200" spans="8:8">
-      <c r="H200" s="1"/>
+      <c r="H200" s="4"/>
     </row>
     <row r="201" spans="8:8">
-      <c r="H201" s="1"/>
+      <c r="H201" s="4"/>
     </row>
     <row r="202" spans="8:8">
-      <c r="H202" s="1"/>
+      <c r="H202" s="4"/>
     </row>
     <row r="203" spans="8:8">
-      <c r="H203" s="1"/>
+      <c r="H203" s="4"/>
     </row>
     <row r="204" spans="8:8">
-      <c r="H204" s="1"/>
+      <c r="H204" s="4"/>
     </row>
     <row r="205" spans="8:8">
-      <c r="H205" s="1"/>
+      <c r="H205" s="4"/>
     </row>
     <row r="206" spans="8:8">
-      <c r="H206" s="1"/>
+      <c r="H206" s="4"/>
     </row>
     <row r="207" spans="8:8">
-      <c r="H207" s="1"/>
+      <c r="H207" s="4"/>
     </row>
     <row r="208" spans="8:8">
-      <c r="H208" s="1"/>
+      <c r="H208" s="4"/>
     </row>
     <row r="209" spans="8:8">
-      <c r="H209" s="1"/>
+      <c r="H209" s="4"/>
     </row>
     <row r="210" spans="8:8">
-      <c r="H210" s="1"/>
+      <c r="H210" s="4"/>
     </row>
     <row r="211" spans="8:8">
-      <c r="H211" s="1"/>
+      <c r="H211" s="4"/>
     </row>
     <row r="212" spans="8:8">
-      <c r="H212" s="1"/>
+      <c r="H212" s="4"/>
     </row>
     <row r="213" spans="8:8">
-      <c r="H213" s="1"/>
+      <c r="H213" s="4"/>
     </row>
     <row r="214" spans="8:8">
-      <c r="H214" s="1"/>
+      <c r="H214" s="4"/>
     </row>
     <row r="215" spans="8:8">
-      <c r="H215" s="1"/>
+      <c r="H215" s="4"/>
     </row>
     <row r="216" spans="8:8">
-      <c r="H216" s="1"/>
+      <c r="H216" s="4"/>
     </row>
     <row r="217" spans="8:8">
-      <c r="H217" s="1"/>
+      <c r="H217" s="4"/>
     </row>
     <row r="218" spans="8:8">
-      <c r="H218" s="1"/>
+      <c r="H218" s="4"/>
     </row>
     <row r="219" spans="8:8">
-      <c r="H219" s="1"/>
+      <c r="H219" s="4"/>
     </row>
     <row r="220" spans="8:8">
-      <c r="H220" s="1"/>
+      <c r="H220" s="4"/>
     </row>
     <row r="221" spans="8:8">
-      <c r="H221" s="1"/>
+      <c r="H221" s="4"/>
     </row>
     <row r="222" spans="8:8">
-      <c r="H222" s="1"/>
+      <c r="H222" s="4"/>
     </row>
     <row r="223" spans="8:8">
-      <c r="H223" s="1"/>
+      <c r="H223" s="4"/>
     </row>
     <row r="224" spans="8:8">
-      <c r="H224" s="1"/>
+      <c r="H224" s="4"/>
     </row>
     <row r="225" spans="8:8">
-      <c r="H225" s="1"/>
+      <c r="H225" s="4"/>
     </row>
     <row r="226" spans="8:8">
-      <c r="H226" s="1"/>
+      <c r="H226" s="4"/>
     </row>
     <row r="227" spans="8:8">
-      <c r="H227" s="1"/>
+      <c r="H227" s="4"/>
     </row>
     <row r="228" spans="8:8">
-      <c r="H228" s="1"/>
+      <c r="H228" s="4"/>
     </row>
     <row r="229" spans="8:8">
-      <c r="H229" s="1"/>
+      <c r="H229" s="4"/>
     </row>
     <row r="230" spans="8:8">
-      <c r="H230" s="1"/>
+      <c r="H230" s="4"/>
     </row>
     <row r="231" spans="8:8">
-      <c r="H231" s="1"/>
+      <c r="H231" s="4"/>
     </row>
     <row r="232" spans="8:8">
-      <c r="H232" s="1"/>
+      <c r="H232" s="4"/>
     </row>
     <row r="233" spans="8:8">
-      <c r="H233" s="1"/>
+      <c r="H233" s="4"/>
     </row>
     <row r="234" spans="8:8">
-      <c r="H234" s="1"/>
+      <c r="H234" s="4"/>
     </row>
     <row r="235" spans="8:8">
-      <c r="H235" s="1"/>
+      <c r="H235" s="4"/>
     </row>
     <row r="236" spans="8:8">
-      <c r="H236" s="1"/>
+      <c r="H236" s="4"/>
     </row>
     <row r="237" spans="8:8">
-      <c r="H237" s="1"/>
+      <c r="H237" s="4"/>
     </row>
     <row r="238" spans="8:8">
-      <c r="H238" s="1"/>
+      <c r="H238" s="4"/>
     </row>
     <row r="239" spans="8:8">
-      <c r="H239" s="1"/>
+      <c r="H239" s="4"/>
     </row>
     <row r="240" spans="8:8">
-      <c r="H240" s="1"/>
+      <c r="H240" s="4"/>
     </row>
     <row r="241" spans="8:8">
-      <c r="H241" s="1"/>
+      <c r="H241" s="4"/>
     </row>
     <row r="242" spans="8:8">
-      <c r="H242" s="1"/>
+      <c r="H242" s="4"/>
     </row>
     <row r="243" spans="8:8">
-      <c r="H243" s="1"/>
+      <c r="H243" s="4"/>
     </row>
     <row r="244" spans="8:8">
-      <c r="H244" s="1"/>
+      <c r="H244" s="4"/>
     </row>
     <row r="245" spans="8:8">
-      <c r="H245" s="1"/>
+      <c r="H245" s="4"/>
     </row>
     <row r="246" spans="8:8">
-      <c r="H246" s="1"/>
+      <c r="H246" s="4"/>
     </row>
     <row r="247" spans="8:8">
-      <c r="H247" s="1"/>
+      <c r="H247" s="4"/>
     </row>
     <row r="248" spans="8:8">
-      <c r="H248" s="1"/>
+      <c r="H248" s="4"/>
     </row>
     <row r="249" spans="8:8">
-      <c r="H249" s="1"/>
+      <c r="H249" s="4"/>
     </row>
     <row r="250" spans="8:8">
-      <c r="H250" s="1"/>
+      <c r="H250" s="4"/>
     </row>
     <row r="251" spans="8:8">
-      <c r="H251" s="1"/>
+      <c r="H251" s="4"/>
     </row>
     <row r="252" spans="8:8">
-      <c r="H252" s="1"/>
+      <c r="H252" s="4"/>
     </row>
     <row r="253" spans="8:8">
-      <c r="H253" s="1"/>
+      <c r="H253" s="4"/>
     </row>
     <row r="254" spans="8:8">
-      <c r="H254" s="1"/>
+      <c r="H254" s="4"/>
     </row>
     <row r="255" spans="8:8">
-      <c r="H255" s="1"/>
+      <c r="H255" s="4"/>
     </row>
     <row r="256" spans="8:8">
-      <c r="H256" s="1"/>
+      <c r="H256" s="4"/>
     </row>
     <row r="257" spans="8:8">
-      <c r="H257" s="1"/>
+      <c r="H257" s="4"/>
     </row>
     <row r="258" spans="8:8">
-      <c r="H258" s="1"/>
+      <c r="H258" s="4"/>
     </row>
     <row r="259" spans="8:8">
-      <c r="H259" s="1"/>
+      <c r="H259" s="4"/>
     </row>
     <row r="260" spans="8:8">
-      <c r="H260" s="1"/>
+      <c r="H260" s="4"/>
     </row>
     <row r="261" spans="8:8">
-      <c r="H261" s="1"/>
+      <c r="H261" s="4"/>
     </row>
     <row r="262" spans="8:8">
-      <c r="H262" s="1"/>
+      <c r="H262" s="4"/>
     </row>
     <row r="263" spans="8:8">
-      <c r="H263" s="1"/>
+      <c r="H263" s="4"/>
     </row>
     <row r="264" spans="8:8">
-      <c r="H264" s="1"/>
+      <c r="H264" s="4"/>
     </row>
     <row r="265" spans="8:8">
-      <c r="H265" s="1"/>
+      <c r="H265" s="4"/>
     </row>
     <row r="266" spans="8:8">
-      <c r="H266" s="1"/>
+      <c r="H266" s="4"/>
     </row>
     <row r="267" spans="8:8">
-      <c r="H267" s="1"/>
+      <c r="H267" s="4"/>
     </row>
     <row r="268" spans="8:8">
-      <c r="H268" s="1"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269" spans="8:8">
-      <c r="H269" s="1"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270" spans="8:8">
-      <c r="H270" s="1"/>
+      <c r="H270" s="4"/>
     </row>
     <row r="271" spans="8:8">
-      <c r="H271" s="1"/>
+      <c r="H271" s="4"/>
     </row>
     <row r="272" spans="8:8">
-      <c r="H272" s="1"/>
+      <c r="H272" s="4"/>
     </row>
     <row r="273" spans="8:8">
-      <c r="H273" s="1"/>
+      <c r="H273" s="4"/>
     </row>
     <row r="274" spans="8:8">
-      <c r="H274" s="1"/>
+      <c r="H274" s="4"/>
     </row>
     <row r="275" spans="8:8">
-      <c r="H275" s="1"/>
+      <c r="H275" s="4"/>
     </row>
     <row r="276" spans="8:8">
-      <c r="H276" s="1"/>
+      <c r="H276" s="4"/>
     </row>
     <row r="277" spans="8:8">
-      <c r="H277" s="1"/>
+      <c r="H277" s="4"/>
     </row>
     <row r="278" spans="8:8">
-      <c r="H278" s="1"/>
+      <c r="H278" s="4"/>
     </row>
     <row r="279" spans="8:8">
-      <c r="H279" s="1"/>
+      <c r="H279" s="4"/>
     </row>
     <row r="280" spans="8:8">
-      <c r="H280" s="1"/>
+      <c r="H280" s="4"/>
     </row>
     <row r="281" spans="8:8">
-      <c r="H281" s="1"/>
+      <c r="H281" s="4"/>
     </row>
     <row r="282" spans="8:8">
-      <c r="H282" s="1"/>
+      <c r="H282" s="4"/>
     </row>
     <row r="283" spans="8:8">
-      <c r="H283" s="1"/>
+      <c r="H283" s="4"/>
     </row>
     <row r="284" spans="8:8">
-      <c r="H284" s="1"/>
+      <c r="H284" s="4"/>
     </row>
     <row r="285" spans="8:8">
-      <c r="H285" s="1"/>
+      <c r="H285" s="4"/>
     </row>
     <row r="286" spans="8:8">
-      <c r="H286" s="1"/>
+      <c r="H286" s="4"/>
     </row>
     <row r="287" spans="8:8">
-      <c r="H287" s="1"/>
+      <c r="H287" s="4"/>
     </row>
     <row r="288" spans="8:8">
-      <c r="H288" s="1"/>
+      <c r="H288" s="4"/>
     </row>
     <row r="289" spans="8:8">
-      <c r="H289" s="1"/>
+      <c r="H289" s="4"/>
     </row>
     <row r="290" spans="8:8">
-      <c r="H290" s="1"/>
+      <c r="H290" s="4"/>
     </row>
     <row r="291" spans="8:8">
-      <c r="H291" s="1"/>
+      <c r="H291" s="4"/>
     </row>
     <row r="292" spans="8:8">
-      <c r="H292" s="1"/>
+      <c r="H292" s="4"/>
     </row>
     <row r="293" spans="8:8">
-      <c r="H293" s="1"/>
+      <c r="H293" s="4"/>
     </row>
     <row r="294" spans="8:8">
-      <c r="H294" s="1"/>
+      <c r="H294" s="4"/>
     </row>
     <row r="295" spans="8:8">
-      <c r="H295" s="1"/>
+      <c r="H295" s="4"/>
     </row>
     <row r="296" spans="8:8">
-      <c r="H296" s="1"/>
+      <c r="H296" s="4"/>
     </row>
     <row r="297" spans="8:8">
-      <c r="H297" s="1"/>
+      <c r="H297" s="4"/>
     </row>
     <row r="298" spans="8:8">
-      <c r="H298" s="1"/>
+      <c r="H298" s="4"/>
     </row>
     <row r="299" spans="8:8">
-      <c r="H299" s="1"/>
+      <c r="H299" s="4"/>
     </row>
     <row r="300" spans="8:8">
-      <c r="H300" s="1"/>
+      <c r="H300" s="4"/>
     </row>
     <row r="301" spans="8:8">
-      <c r="H301" s="1"/>
+      <c r="H301" s="4"/>
     </row>
     <row r="302" spans="8:8">
-      <c r="H302" s="1"/>
+      <c r="H302" s="4"/>
     </row>
     <row r="303" spans="8:8">
-      <c r="H303" s="1"/>
+      <c r="H303" s="4"/>
     </row>
     <row r="304" spans="8:8">
-      <c r="H304" s="1"/>
+      <c r="H304" s="4"/>
     </row>
     <row r="305" spans="8:8">
-      <c r="H305" s="1"/>
+      <c r="H305" s="4"/>
     </row>
     <row r="306" spans="8:8">
-      <c r="H306" s="1"/>
+      <c r="H306" s="4"/>
     </row>
     <row r="307" spans="8:8">
-      <c r="H307" s="1"/>
+      <c r="H307" s="4"/>
     </row>
     <row r="308" spans="8:8">
-      <c r="H308" s="1"/>
+      <c r="H308" s="4"/>
     </row>
     <row r="309" spans="8:8">
-      <c r="H309" s="1"/>
+      <c r="H309" s="4"/>
     </row>
     <row r="310" spans="8:8">
-      <c r="H310" s="1"/>
+      <c r="H310" s="4"/>
     </row>
     <row r="311" spans="8:8">
-      <c r="H311" s="1"/>
+      <c r="H311" s="4"/>
     </row>
     <row r="312" spans="8:8">
-      <c r="H312" s="1"/>
+      <c r="H312" s="4"/>
     </row>
     <row r="313" spans="8:8">
-      <c r="H313" s="1"/>
+      <c r="H313" s="4"/>
     </row>
     <row r="314" spans="8:8">
-      <c r="H314" s="1"/>
+      <c r="H314" s="4"/>
     </row>
     <row r="315" spans="8:8">
-      <c r="H315" s="1"/>
+      <c r="H315" s="4"/>
     </row>
     <row r="316" spans="8:8">
-      <c r="H316" s="1"/>
+      <c r="H316" s="4"/>
     </row>
     <row r="317" spans="8:8">
-      <c r="H317" s="1"/>
+      <c r="H317" s="4"/>
     </row>
     <row r="318" spans="8:8">
-      <c r="H318" s="1"/>
+      <c r="H318" s="4"/>
     </row>
     <row r="319" spans="8:8">
-      <c r="H319" s="1"/>
+      <c r="H319" s="4"/>
     </row>
     <row r="320" spans="8:8">
-      <c r="H320" s="1"/>
+      <c r="H320" s="4"/>
     </row>
     <row r="321" spans="8:8">
-      <c r="H321" s="1"/>
+      <c r="H321" s="4"/>
     </row>
     <row r="322" spans="8:8">
-      <c r="H322" s="1"/>
+      <c r="H322" s="4"/>
     </row>
     <row r="323" spans="8:8">
-      <c r="H323" s="1"/>
+      <c r="H323" s="4"/>
     </row>
     <row r="324" spans="8:8">
-      <c r="H324" s="1"/>
+      <c r="H324" s="4"/>
     </row>
     <row r="325" spans="8:8">
-      <c r="H325" s="1"/>
+      <c r="H325" s="4"/>
     </row>
     <row r="326" spans="8:8">
-      <c r="H326" s="1"/>
+      <c r="H326" s="4"/>
     </row>
     <row r="327" spans="8:8">
-      <c r="H327" s="1"/>
+      <c r="H327" s="4"/>
     </row>
     <row r="328" spans="8:8">
-      <c r="H328" s="1"/>
+      <c r="H328" s="4"/>
     </row>
     <row r="329" spans="8:8">
-      <c r="H329" s="1"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330" spans="8:8">
-      <c r="H330" s="1"/>
+      <c r="H330" s="4"/>
     </row>
     <row r="331" spans="8:8">
-      <c r="H331" s="1"/>
+      <c r="H331" s="4"/>
     </row>
     <row r="332" spans="8:8">
-      <c r="H332" s="1"/>
+      <c r="H332" s="4"/>
     </row>
     <row r="333" spans="8:8">
-      <c r="H333" s="1"/>
+      <c r="H333" s="4"/>
     </row>
     <row r="334" spans="8:8">
-      <c r="H334" s="1"/>
+      <c r="H334" s="4"/>
     </row>
     <row r="335" spans="8:8">
-      <c r="H335" s="1"/>
+      <c r="H335" s="4"/>
     </row>
     <row r="336" spans="8:8">
-      <c r="H336" s="1"/>
+      <c r="H336" s="4"/>
     </row>
     <row r="337" spans="8:8">
-      <c r="H337" s="1"/>
+      <c r="H337" s="4"/>
     </row>
     <row r="338" spans="8:8">
-      <c r="H338" s="1"/>
+      <c r="H338" s="4"/>
     </row>
     <row r="339" spans="8:8">
-      <c r="H339" s="1"/>
+      <c r="H339" s="4"/>
     </row>
     <row r="340" spans="8:8">
-      <c r="H340" s="1"/>
+      <c r="H340" s="4"/>
     </row>
     <row r="341" spans="8:8">
-      <c r="H341" s="1"/>
+      <c r="H341" s="4"/>
     </row>
     <row r="342" spans="8:8">
-      <c r="H342" s="1"/>
+      <c r="H342" s="4"/>
     </row>
     <row r="343" spans="8:8">
-      <c r="H343" s="1"/>
+      <c r="H343" s="4"/>
     </row>
     <row r="344" spans="8:8">
-      <c r="H344" s="1"/>
+      <c r="H344" s="4"/>
     </row>
     <row r="345" spans="8:8">
-      <c r="H345" s="1"/>
+      <c r="H345" s="4"/>
     </row>
     <row r="346" spans="8:8">
-      <c r="H346" s="1"/>
+      <c r="H346" s="4"/>
     </row>
     <row r="347" spans="8:8">
-      <c r="H347" s="1"/>
+      <c r="H347" s="4"/>
     </row>
     <row r="348" spans="8:8">
-      <c r="H348" s="1"/>
+      <c r="H348" s="4"/>
     </row>
     <row r="349" spans="8:8">
-      <c r="H349" s="1"/>
+      <c r="H349" s="4"/>
     </row>
     <row r="350" spans="8:8">
-      <c r="H350" s="1"/>
+      <c r="H350" s="4"/>
     </row>
     <row r="351" spans="8:8">
-      <c r="H351" s="1"/>
+      <c r="H351" s="4"/>
     </row>
     <row r="352" spans="8:8">
-      <c r="H352" s="1"/>
+      <c r="H352" s="4"/>
     </row>
     <row r="353" spans="8:8">
-      <c r="H353" s="1"/>
+      <c r="H353" s="4"/>
     </row>
     <row r="354" spans="8:8">
-      <c r="H354" s="1"/>
+      <c r="H354" s="4"/>
     </row>
     <row r="355" spans="8:8">
-      <c r="H355" s="1"/>
+      <c r="H355" s="4"/>
     </row>
     <row r="356" spans="8:8">
-      <c r="H356" s="1"/>
+      <c r="H356" s="4"/>
     </row>
     <row r="357" spans="8:8">
-      <c r="H357" s="1"/>
+      <c r="H357" s="4"/>
     </row>
     <row r="358" spans="8:8">
-      <c r="H358" s="1"/>
+      <c r="H358" s="4"/>
     </row>
     <row r="359" spans="8:8">
-      <c r="H359" s="1"/>
+      <c r="H359" s="4"/>
     </row>
     <row r="360" spans="8:8">
-      <c r="H360" s="1"/>
+      <c r="H360" s="4"/>
     </row>
     <row r="361" spans="8:8">
-      <c r="H361" s="1"/>
+      <c r="H361" s="4"/>
     </row>
     <row r="362" spans="8:8">
-      <c r="H362" s="1"/>
+      <c r="H362" s="4"/>
     </row>
     <row r="363" spans="8:8">
-      <c r="H363" s="1"/>
+      <c r="H363" s="4"/>
     </row>
     <row r="364" spans="8:8">
-      <c r="H364" s="1"/>
+      <c r="H364" s="4"/>
     </row>
     <row r="365" spans="8:8">
-      <c r="H365" s="1"/>
+      <c r="H365" s="4"/>
     </row>
     <row r="366" spans="8:8">
-      <c r="H366" s="1"/>
+      <c r="H366" s="4"/>
     </row>
     <row r="367" spans="8:8">
-      <c r="H367" s="1"/>
+      <c r="H367" s="4"/>
     </row>
     <row r="368" spans="8:8">
-      <c r="H368" s="1"/>
+      <c r="H368" s="4"/>
     </row>
     <row r="369" spans="8:8">
-      <c r="H369" s="1"/>
+      <c r="H369" s="4"/>
     </row>
     <row r="370" spans="8:8">
-      <c r="H370" s="1"/>
+      <c r="H370" s="4"/>
     </row>
     <row r="371" spans="8:8">
-      <c r="H371" s="1"/>
+      <c r="H371" s="4"/>
     </row>
     <row r="372" spans="8:8">
-      <c r="H372" s="1"/>
+      <c r="H372" s="4"/>
     </row>
     <row r="373" spans="8:8">
-      <c r="H373" s="1"/>
+      <c r="H373" s="4"/>
     </row>
     <row r="374" spans="8:8">
-      <c r="H374" s="1"/>
+      <c r="H374" s="4"/>
     </row>
     <row r="375" spans="8:8">
-      <c r="H375" s="1"/>
+      <c r="H375" s="4"/>
     </row>
     <row r="376" spans="8:8">
-      <c r="H376" s="1"/>
+      <c r="H376" s="4"/>
     </row>
     <row r="377" spans="8:8">
-      <c r="H377" s="1"/>
+      <c r="H377" s="4"/>
     </row>
     <row r="378" spans="8:8">
-      <c r="H378" s="1"/>
+      <c r="H378" s="4"/>
     </row>
     <row r="379" spans="8:8">
-      <c r="H379" s="1"/>
+      <c r="H379" s="4"/>
     </row>
     <row r="380" spans="8:8">
-      <c r="H380" s="1"/>
+      <c r="H380" s="4"/>
     </row>
     <row r="381" spans="8:8">
-      <c r="H381" s="1"/>
+      <c r="H381" s="4"/>
     </row>
     <row r="382" spans="8:8">
-      <c r="H382" s="1"/>
+      <c r="H382" s="4"/>
     </row>
     <row r="383" spans="8:8">
-      <c r="H383" s="1"/>
+      <c r="H383" s="4"/>
     </row>
     <row r="384" spans="8:8">
-      <c r="H384" s="1"/>
+      <c r="H384" s="4"/>
     </row>
     <row r="385" spans="8:8">
-      <c r="H385" s="1"/>
+      <c r="H385" s="4"/>
     </row>
     <row r="386" spans="8:8">
-      <c r="H386" s="1"/>
+      <c r="H386" s="4"/>
     </row>
     <row r="387" spans="8:8">
-      <c r="H387" s="1"/>
+      <c r="H387" s="4"/>
     </row>
     <row r="388" spans="8:8">
-      <c r="H388" s="1"/>
+      <c r="H388" s="4"/>
     </row>
     <row r="389" spans="8:8">
-      <c r="H389" s="1"/>
+      <c r="H389" s="4"/>
     </row>
     <row r="390" spans="8:8">
-      <c r="H390" s="1"/>
+      <c r="H390" s="4"/>
     </row>
     <row r="391" spans="8:8">
-      <c r="H391" s="1"/>
+      <c r="H391" s="4"/>
     </row>
     <row r="392" spans="8:8">
-      <c r="H392" s="1"/>
+      <c r="H392" s="4"/>
     </row>
     <row r="393" spans="8:8">
-      <c r="H393" s="1"/>
+      <c r="H393" s="4"/>
     </row>
     <row r="394" spans="8:8">
-      <c r="H394" s="1"/>
+      <c r="H394" s="4"/>
     </row>
     <row r="395" spans="8:8">
-      <c r="H395" s="1"/>
+      <c r="H395" s="4"/>
     </row>
     <row r="396" spans="8:8">
-      <c r="H396" s="1"/>
+      <c r="H396" s="4"/>
     </row>
     <row r="397" spans="8:8">
-      <c r="H397" s="1"/>
+      <c r="H397" s="4"/>
     </row>
     <row r="398" spans="8:8">
-      <c r="H398" s="1"/>
+      <c r="H398" s="4"/>
     </row>
     <row r="399" spans="8:8">
-      <c r="H399" s="1"/>
+      <c r="H399" s="4"/>
     </row>
     <row r="400" spans="8:8">
-      <c r="H400" s="1"/>
+      <c r="H400" s="4"/>
     </row>
     <row r="401" spans="8:8">
-      <c r="H401" s="1"/>
+      <c r="H401" s="4"/>
     </row>
     <row r="402" spans="8:8">
-      <c r="H402" s="1"/>
+      <c r="H402" s="4"/>
     </row>
     <row r="403" spans="8:8">
-      <c r="H403" s="1"/>
+      <c r="H403" s="4"/>
     </row>
     <row r="404" spans="8:8">
-      <c r="H404" s="1"/>
+      <c r="H404" s="4"/>
     </row>
     <row r="405" spans="8:8">
-      <c r="H405" s="1"/>
+      <c r="H405" s="4"/>
     </row>
     <row r="406" spans="8:8">
-      <c r="H406" s="1"/>
+      <c r="H406" s="4"/>
     </row>
     <row r="407" spans="8:8">
-      <c r="H407" s="1"/>
+      <c r="H407" s="4"/>
     </row>
     <row r="408" spans="8:8">
-      <c r="H408" s="1"/>
+      <c r="H408" s="4"/>
     </row>
     <row r="409" spans="8:8">
-      <c r="H409" s="1"/>
+      <c r="H409" s="4"/>
     </row>
     <row r="410" spans="8:8">
-      <c r="H410" s="1"/>
+      <c r="H410" s="4"/>
     </row>
     <row r="411" spans="8:8">
-      <c r="H411" s="1"/>
+      <c r="H411" s="4"/>
     </row>
     <row r="412" spans="8:8">
-      <c r="H412" s="1"/>
+      <c r="H412" s="4"/>
     </row>
     <row r="413" spans="8:8">
-      <c r="H413" s="1"/>
+      <c r="H413" s="4"/>
     </row>
     <row r="414" spans="8:8">
-      <c r="H414" s="1"/>
+      <c r="H414" s="4"/>
     </row>
     <row r="415" spans="8:8">
-      <c r="H415" s="1"/>
+      <c r="H415" s="4"/>
     </row>
     <row r="416" spans="8:8">
-      <c r="H416" s="1"/>
+      <c r="H416" s="4"/>
     </row>
     <row r="417" spans="8:8">
-      <c r="H417" s="1"/>
+      <c r="H417" s="4"/>
     </row>
     <row r="418" spans="8:8">
-      <c r="H418" s="1"/>
+      <c r="H418" s="4"/>
     </row>
     <row r="419" spans="8:8">
-      <c r="H419" s="1"/>
+      <c r="H419" s="4"/>
     </row>
     <row r="420" spans="8:8">
-      <c r="H420" s="1"/>
+      <c r="H420" s="4"/>
     </row>
     <row r="421" spans="8:8">
-      <c r="H421" s="1"/>
+      <c r="H421" s="4"/>
     </row>
     <row r="422" spans="8:8">
-      <c r="H422" s="1"/>
+      <c r="H422" s="4"/>
     </row>
     <row r="423" spans="8:8">
-      <c r="H423" s="1"/>
+      <c r="H423" s="4"/>
     </row>
     <row r="424" spans="8:8">
-      <c r="H424" s="1"/>
+      <c r="H424" s="4"/>
     </row>
     <row r="425" spans="8:8">
-      <c r="H425" s="1"/>
+      <c r="H425" s="4"/>
     </row>
     <row r="426" spans="8:8">
-      <c r="H426" s="1"/>
+      <c r="H426" s="4"/>
     </row>
     <row r="427" spans="8:8">
-      <c r="H427" s="1"/>
+      <c r="H427" s="4"/>
     </row>
     <row r="428" spans="8:8">
-      <c r="H428" s="1"/>
+      <c r="H428" s="4"/>
     </row>
     <row r="429" spans="8:8">
-      <c r="H429" s="1"/>
+      <c r="H429" s="4"/>
     </row>
     <row r="430" spans="8:8">
-      <c r="H430" s="1"/>
+      <c r="H430" s="4"/>
     </row>
     <row r="431" spans="8:8">
-      <c r="H431" s="1"/>
+      <c r="H431" s="4"/>
     </row>
     <row r="432" spans="8:8">
-      <c r="H432" s="1"/>
+      <c r="H432" s="4"/>
     </row>
     <row r="433" spans="8:8">
-      <c r="H433" s="1"/>
+      <c r="H433" s="4"/>
     </row>
     <row r="434" spans="8:8">
-      <c r="H434" s="1"/>
+      <c r="H434" s="4"/>
     </row>
     <row r="435" spans="8:8">
-      <c r="H435" s="1"/>
+      <c r="H435" s="4"/>
     </row>
     <row r="436" spans="8:8">
-      <c r="H436" s="1"/>
+      <c r="H436" s="4"/>
     </row>
     <row r="437" spans="8:8">
-      <c r="H437" s="1"/>
+      <c r="H437" s="4"/>
     </row>
     <row r="438" spans="8:8">
-      <c r="H438" s="1"/>
+      <c r="H438" s="4"/>
     </row>
     <row r="439" spans="8:8">
-      <c r="H439" s="1"/>
+      <c r="H439" s="4"/>
     </row>
     <row r="440" spans="8:8">
-      <c r="H440" s="1"/>
+      <c r="H440" s="4"/>
     </row>
     <row r="441" spans="8:8">
-      <c r="H441" s="1"/>
+      <c r="H441" s="4"/>
     </row>
     <row r="442" spans="8:8">
-      <c r="H442" s="1"/>
+      <c r="H442" s="4"/>
     </row>
     <row r="443" spans="8:8">
-      <c r="H443" s="1"/>
+      <c r="H443" s="4"/>
     </row>
     <row r="444" spans="8:8">
-      <c r="H444" s="1"/>
+      <c r="H444" s="4"/>
     </row>
     <row r="445" spans="8:8">
-      <c r="H445" s="1"/>
+      <c r="H445" s="4"/>
     </row>
     <row r="446" spans="8:8">
-      <c r="H446" s="1"/>
+      <c r="H446" s="4"/>
     </row>
     <row r="447" spans="8:8">
-      <c r="H447" s="1"/>
+      <c r="H447" s="4"/>
     </row>
     <row r="448" spans="8:8">
-      <c r="H448" s="1"/>
+      <c r="H448" s="4"/>
     </row>
     <row r="449" spans="8:8">
-      <c r="H449" s="1"/>
+      <c r="H449" s="4"/>
     </row>
     <row r="450" spans="8:8">
-      <c r="H450" s="1"/>
+      <c r="H450" s="4"/>
     </row>
     <row r="451" spans="8:8">
-      <c r="H451" s="1"/>
+      <c r="H451" s="4"/>
     </row>
     <row r="452" spans="8:8">
-      <c r="H452" s="1"/>
+      <c r="H452" s="4"/>
     </row>
     <row r="453" spans="8:8">
-      <c r="H453" s="1"/>
+      <c r="H453" s="4"/>
     </row>
     <row r="454" spans="8:8">
-      <c r="H454" s="1"/>
+      <c r="H454" s="4"/>
     </row>
     <row r="455" spans="8:8">
-      <c r="H455" s="1"/>
+      <c r="H455" s="4"/>
     </row>
     <row r="456" spans="8:8">
-      <c r="H456" s="1"/>
+      <c r="H456" s="4"/>
     </row>
     <row r="457" spans="8:8">
-      <c r="H457" s="1"/>
+      <c r="H457" s="4"/>
     </row>
     <row r="458" spans="8:8">
-      <c r="H458" s="1"/>
+      <c r="H458" s="4"/>
     </row>
     <row r="459" spans="8:8">
-      <c r="H459" s="1"/>
+      <c r="H459" s="4"/>
     </row>
     <row r="460" spans="8:8">
-      <c r="H460" s="1"/>
+      <c r="H460" s="4"/>
     </row>
     <row r="461" spans="8:8">
-      <c r="H461" s="1"/>
+      <c r="H461" s="4"/>
     </row>
     <row r="462" spans="8:8">
-      <c r="H462" s="1"/>
+      <c r="H462" s="4"/>
     </row>
     <row r="463" spans="8:8">
-      <c r="H463" s="1"/>
+      <c r="H463" s="4"/>
     </row>
     <row r="464" spans="8:8">
-      <c r="H464" s="1"/>
+      <c r="H464" s="4"/>
     </row>
     <row r="465" spans="8:8">
-      <c r="H465" s="1"/>
+      <c r="H465" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
